--- a/springboot-test/src/main/resources/excel/statement.xlsx
+++ b/springboot-test/src/main/resources/excel/statement.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16180"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -784,8 +797,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,17 +812,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1158,11 +1171,11 @@
   <sheetPr/>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="70.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
@@ -1233,12 +1246,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
@@ -1248,12 +1261,12 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13">
@@ -1263,366 +1276,366 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="5"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="5"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:13">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="8"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="8"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="8"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="6"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -1689,7 +1702,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1706,7 +1719,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
